--- a/Portfolio/AUS_ElectricityGeneration_2023/data/ausenergystat2024.xlsx
+++ b/Portfolio/AUS_ElectricityGeneration_2023/data/ausenergystat2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronnynguyen/Documents/Project/VizVenture/Portfolio/AUS_ElectricityGeneration_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813D47A1-20F5-A94E-949E-174D9736BF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E93AF6B-C79B-9642-B24C-78FAF4C06A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="828" firstSheet="7" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -955,8 +955,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1076,8 +1077,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="10"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6" xr:uid="{B00FE4C2-DA47-4D87-9B0B-3CCFA42816F9}"/>
     <cellStyle name="Followed Hyperlink" xfId="3" xr:uid="{4162542B-8E5F-4232-BFC4-6982DBA6B46F}"/>
@@ -1088,6 +1091,7 @@
     <cellStyle name="Normal 2 12" xfId="7" xr:uid="{D5B65DE0-F426-4FCA-A608-0A9755DA386B}"/>
     <cellStyle name="Normal 2 2" xfId="5" xr:uid="{3C18A42F-03B8-4AF6-B598-17439F159922}"/>
     <cellStyle name="Normal_Master copy06(version 6)" xfId="1" xr:uid="{17BB594C-A00D-4646-BE92-6DEB150118FA}"/>
+    <cellStyle name="Per cent" xfId="11" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="8" xr:uid="{93E5E7D8-CE76-4EAC-B5CB-227C9053EEC9}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4345,10 +4349,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F8F349-C5D5-4EB0-A490-E0BE5C20AB7D}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4362,7 +4366,7 @@
     <col min="11" max="16384" width="9.1640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>144</v>
       </c>
@@ -4394,7 +4398,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>131</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>93969.315000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>132</v>
       </c>
@@ -4458,7 +4462,7 @@
         <v>31640.536</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>133</v>
       </c>
@@ -4490,7 +4494,7 @@
         <v>46669.616000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>134</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>4863.0069999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>39</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>177142.47399999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>135</v>
       </c>
@@ -4586,7 +4590,7 @@
         <v>3125.683</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>136</v>
       </c>
@@ -4618,7 +4622,7 @@
         <v>31867.912</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>137</v>
       </c>
@@ -4650,7 +4654,7 @@
         <v>15975.09</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>138</v>
       </c>
@@ -4682,7 +4686,7 @@
         <v>17085.64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>139</v>
       </c>
@@ -4714,7 +4718,7 @@
         <v>27908.705999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>140</v>
       </c>
@@ -4746,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4777,8 +4781,12 @@
       <c r="J13" s="50">
         <v>95963.03</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="22">
+        <f>(J13-I13)/I13</f>
+        <v>8.8563395216858784E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>48</v>
       </c>
@@ -4810,7 +4818,7 @@
         <v>273105.50400000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -4821,16 +4829,40 @@
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="C16" s="60">
+        <f>(C8-B8)/B8</f>
+        <v>0.10197775678564065</v>
+      </c>
+      <c r="D16" s="60">
+        <f t="shared" ref="C16:I16" si="0">(D8-C8)/C8</f>
+        <v>1.3120312154301109E-2</v>
+      </c>
+      <c r="E16" s="60">
+        <f t="shared" si="0"/>
+        <v>0.230959995579371</v>
+      </c>
+      <c r="F16" s="60">
+        <f t="shared" si="0"/>
+        <v>0.19737689579001383</v>
+      </c>
+      <c r="G16" s="60">
+        <f t="shared" si="0"/>
+        <v>0.16101346734808003</v>
+      </c>
+      <c r="H16" s="60">
+        <f t="shared" si="0"/>
+        <v>0.1852967670213137</v>
+      </c>
+      <c r="I16" s="60">
+        <f t="shared" si="0"/>
+        <v>0.12145242051426119</v>
+      </c>
+      <c r="J16" s="60">
+        <f>(J8-I8)/I8</f>
+        <v>6.0485652389493653E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="44"/>
@@ -5029,7 +5061,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9500,7 +9532,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:I32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9739,7 +9771,9 @@
       <c r="G8" s="49">
         <v>1901.73</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="49">
+        <v>0</v>
+      </c>
       <c r="I8" s="49">
         <v>31867.912</v>
       </c>
@@ -9981,7 +10015,10 @@
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="I18" s="59">
+        <f>(B14-I13)/I13</f>
+        <v>-0.25462864188427564</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
